--- a/biology/Médecine/Joe_Hin_Tjio/Joe_Hin_Tjio.xlsx
+++ b/biology/Médecine/Joe_Hin_Tjio/Joe_Hin_Tjio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joe Hin Tjio (2 novembre 1919 - 27 novembre 2001) est un cytogénéticien américain d'origine indonésienne. Il est connu comme la première personne à reconnaître le nombre normal de chromosomes humains le 22 décembre 1955 à l'Institut de génétique de l'université de Lund en Suède, où Tjio est un scientifique invité.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tjio (dont le nom se prononce CHEE-oh) est né de parents indonésiens d'origine chinoise à Pekalongan, Java, alors partie des Indes néerlandaises et plus tard connue sous le nom d'Indonésie. Son père est photographe. Tjio fait ses études dans les écoles coloniales néerlandaises, suit une formation en agronomie à l'université et fait des recherches sur l'amélioration de la pomme de terre. Il est emprisonné pendant 3 ans et torturé par les Japonais dans un camp de concentration pendant la Seconde Guerre mondiale.
 Après la fin de la guerre, Tjio se rend aux Pays-Bas, dont le gouvernement lui accorde une bourse pour étudier en Europe. Il travaille dans la sélection végétale au Danemark, en Espagne et en Suède. De 1948 à 1959, il fait des recherches sur les chromosomes végétaux à Saragosse en Espagne et passe ses étés en Suède à travailler avec le professeur Albert Levan à Lund.
